--- a/nba-awards.xlsx
+++ b/nba-awards.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luan_\OneDrive\Área de Trabalho\Data Science\09. NBA Recap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luan_\OneDrive\Área de Trabalho\Data Engineering\NBA Recap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963C0033-3E9E-4006-A112-C96697A2C094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28786304-4D78-4FA0-A8BD-24A608B5AA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="342">
   <si>
     <t>Season</t>
   </si>
@@ -1036,6 +1036,24 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>Denver Nuggests</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1560,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1556,14 +1574,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1921,12 +1940,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -1965,52 +1987,52 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8">
-        <v>2022</v>
+        <v>336</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2023</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D2" t="str">
         <f>VLOOKUP(A2,'Final MVP'!A:B,2,0)</f>
-        <v>Stephen Curry</v>
+        <v>Nikola Jokić</v>
       </c>
       <c r="E2" t="str">
         <f>VLOOKUP(A2,MVP!A:B,2,0)</f>
-        <v>Nikola Jokić</v>
+        <v>Joel Embiid</v>
       </c>
       <c r="F2" t="str">
         <f>VLOOKUP(A2,DPOY!A:B,2,0)</f>
-        <v>Marcus Smart</v>
+        <v>Jaren Jackson Jr</v>
       </c>
       <c r="G2" t="str">
         <f>VLOOKUP(A2,ROTY!A:B,2,0)</f>
-        <v>Scottie Barnes</v>
+        <v xml:space="preserve"> Paolo Banchero</v>
       </c>
       <c r="H2" t="str">
         <f>VLOOKUP(A2,MIP!A:B,2,0)</f>
-        <v>Ja Morant</v>
+        <v>Lauri Markkanen</v>
       </c>
       <c r="I2" t="str">
         <f>VLOOKUP(A2,'6TH-MAN'!A:B,2,0)</f>
-        <v>Tyler Herro</v>
+        <v>Malcolm Brogdon</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8">
-        <v>2021</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2022</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D3" t="str">
         <f>VLOOKUP(A3,'Final MVP'!A:B,2,0)</f>
-        <v>Giannis Antetokounmpo</v>
+        <v>Stephen Curry</v>
       </c>
       <c r="E3" t="str">
         <f>VLOOKUP(A3,MVP!A:B,2,0)</f>
@@ -2018,69 +2040,69 @@
       </c>
       <c r="F3" t="str">
         <f>VLOOKUP(A3,DPOY!A:B,2,0)</f>
-        <v>Rudy Gobert</v>
+        <v>Marcus Smart</v>
       </c>
       <c r="G3" t="str">
         <f>VLOOKUP(A3,ROTY!A:B,2,0)</f>
-        <v>LaMelo Ball</v>
+        <v>Scottie Barnes</v>
       </c>
       <c r="H3" t="str">
         <f>VLOOKUP(A3,MIP!A:B,2,0)</f>
-        <v>Julius Randle</v>
+        <v>Ja Morant</v>
       </c>
       <c r="I3" t="str">
         <f>VLOOKUP(A3,'6TH-MAN'!A:B,2,0)</f>
-        <v>Jordan Clarkson</v>
+        <v>Tyler Herro</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8">
-        <v>2020</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2021</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP(A4,'Final MVP'!A:B,2,0)</f>
-        <v>LeBron James</v>
+        <v>Giannis Antetokounmpo</v>
       </c>
       <c r="E4" t="str">
         <f>VLOOKUP(A4,MVP!A:B,2,0)</f>
-        <v>Giannis Antetokounmpo</v>
+        <v>Nikola Jokić</v>
       </c>
       <c r="F4" t="str">
         <f>VLOOKUP(A4,DPOY!A:B,2,0)</f>
-        <v>Giannis Antetokounmpo</v>
+        <v>Rudy Gobert</v>
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP(A4,ROTY!A:B,2,0)</f>
-        <v>Ja Morant</v>
+        <v>LaMelo Ball</v>
       </c>
       <c r="H4" t="str">
         <f>VLOOKUP(A4,MIP!A:B,2,0)</f>
-        <v>Brandon Ingram</v>
+        <v>Julius Randle</v>
       </c>
       <c r="I4" t="str">
         <f>VLOOKUP(A4,'6TH-MAN'!A:B,2,0)</f>
-        <v>Montrezl Harrell</v>
+        <v>Jordan Clarkson</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8">
-        <v>2019</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2020</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D5" t="str">
         <f>VLOOKUP(A5,'Final MVP'!A:B,2,0)</f>
-        <v>Kawhi Leonard</v>
+        <v>LeBron James</v>
       </c>
       <c r="E5" t="str">
         <f>VLOOKUP(A5,MVP!A:B,2,0)</f>
@@ -2088,38 +2110,38 @@
       </c>
       <c r="F5" t="str">
         <f>VLOOKUP(A5,DPOY!A:B,2,0)</f>
-        <v>Rudy Gobert</v>
+        <v>Giannis Antetokounmpo</v>
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(A5,ROTY!A:B,2,0)</f>
-        <v>Luka Dončić</v>
+        <v>Ja Morant</v>
       </c>
       <c r="H5" t="str">
         <f>VLOOKUP(A5,MIP!A:B,2,0)</f>
-        <v>Pascal Siakam</v>
+        <v>Brandon Ingram</v>
       </c>
       <c r="I5" t="str">
         <f>VLOOKUP(A5,'6TH-MAN'!A:B,2,0)</f>
-        <v>Lou Williams</v>
+        <v>Montrezl Harrell</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2018</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2019</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP(A6,'Final MVP'!A:B,2,0)</f>
-        <v>Kevin Durant</v>
+        <v>Kawhi Leonard</v>
       </c>
       <c r="E6" t="str">
         <f>VLOOKUP(A6,MVP!A:B,2,0)</f>
-        <v>James Harden</v>
+        <v>Giannis Antetokounmpo</v>
       </c>
       <c r="F6" t="str">
         <f>VLOOKUP(A6,DPOY!A:B,2,0)</f>
@@ -2127,11 +2149,11 @@
       </c>
       <c r="G6" t="str">
         <f>VLOOKUP(A6,ROTY!A:B,2,0)</f>
-        <v>Ben Simmons</v>
+        <v>Luka Dončić</v>
       </c>
       <c r="H6" t="str">
         <f>VLOOKUP(A6,MIP!A:B,2,0)</f>
-        <v>Victor Oladipo</v>
+        <v>Pascal Siakam</v>
       </c>
       <c r="I6" t="str">
         <f>VLOOKUP(A6,'6TH-MAN'!A:B,2,0)</f>
@@ -2140,10 +2162,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2017</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2018</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>314</v>
@@ -2154,73 +2176,73 @@
       </c>
       <c r="E7" t="str">
         <f>VLOOKUP(A7,MVP!A:B,2,0)</f>
-        <v>Russell Westbrook</v>
+        <v>James Harden</v>
       </c>
       <c r="F7" t="str">
         <f>VLOOKUP(A7,DPOY!A:B,2,0)</f>
-        <v>Draymond Green</v>
+        <v>Rudy Gobert</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(A7,ROTY!A:B,2,0)</f>
-        <v>Malcolm Brogdon</v>
+        <v>Ben Simmons</v>
       </c>
       <c r="H7" t="str">
         <f>VLOOKUP(A7,MIP!A:B,2,0)</f>
-        <v>Giannis Antetokounmpo</v>
+        <v>Victor Oladipo</v>
       </c>
       <c r="I7" t="str">
         <f>VLOOKUP(A7,'6TH-MAN'!A:B,2,0)</f>
-        <v>Eric Gordon</v>
+        <v>Lou Williams</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2016</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2017</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D8" t="str">
         <f>VLOOKUP(A8,'Final MVP'!A:B,2,0)</f>
-        <v>LeBron James</v>
+        <v>Kevin Durant</v>
       </c>
       <c r="E8" t="str">
         <f>VLOOKUP(A8,MVP!A:B,2,0)</f>
-        <v>Stephen Curry</v>
+        <v>Russell Westbrook</v>
       </c>
       <c r="F8" t="str">
         <f>VLOOKUP(A8,DPOY!A:B,2,0)</f>
-        <v>Kawhi Leonard</v>
+        <v>Draymond Green</v>
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(A8,ROTY!A:B,2,0)</f>
-        <v>Karl-Anthony Towns</v>
+        <v>Malcolm Brogdon</v>
       </c>
       <c r="H8" t="str">
         <f>VLOOKUP(A8,MIP!A:B,2,0)</f>
-        <v>CJ McCollum</v>
+        <v>Giannis Antetokounmpo</v>
       </c>
       <c r="I8" t="str">
         <f>VLOOKUP(A8,'6TH-MAN'!A:B,2,0)</f>
-        <v>Jamal Crawford</v>
+        <v>Eric Gordon</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2015</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2016</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D9" t="str">
         <f>VLOOKUP(A9,'Final MVP'!A:B,2,0)</f>
-        <v>Andre Iguodala</v>
+        <v>LeBron James</v>
       </c>
       <c r="E9" t="str">
         <f>VLOOKUP(A9,MVP!A:B,2,0)</f>
@@ -2232,93 +2254,93 @@
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(A9,ROTY!A:B,2,0)</f>
-        <v>Andrew Wiggins</v>
+        <v>Karl-Anthony Towns</v>
       </c>
       <c r="H9" t="str">
         <f>VLOOKUP(A9,MIP!A:B,2,0)</f>
-        <v>Jimmy Butler</v>
+        <v>CJ McCollum</v>
       </c>
       <c r="I9" t="str">
         <f>VLOOKUP(A9,'6TH-MAN'!A:B,2,0)</f>
-        <v>Lou Williams</v>
+        <v>Jamal Crawford</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8">
-        <v>2014</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2015</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP(A10,'Final MVP'!A:B,2,0)</f>
-        <v>Kawhi Leonard</v>
+        <v>Andre Iguodala</v>
       </c>
       <c r="E10" t="str">
         <f>VLOOKUP(A10,MVP!A:B,2,0)</f>
-        <v>Kevin Durant</v>
+        <v>Stephen Curry</v>
       </c>
       <c r="F10" t="str">
         <f>VLOOKUP(A10,DPOY!A:B,2,0)</f>
-        <v>Joakim Noah</v>
+        <v>Kawhi Leonard</v>
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(A10,ROTY!A:B,2,0)</f>
-        <v>Michael Carter-Williams</v>
+        <v>Andrew Wiggins</v>
       </c>
       <c r="H10" t="str">
         <f>VLOOKUP(A10,MIP!A:B,2,0)</f>
-        <v>Goran Dragić</v>
+        <v>Jimmy Butler</v>
       </c>
       <c r="I10" t="str">
         <f>VLOOKUP(A10,'6TH-MAN'!A:B,2,0)</f>
-        <v>Jamal Crawford</v>
+        <v>Lou Williams</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8">
-        <v>2013</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2014</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP(A11,'Final MVP'!A:B,2,0)</f>
-        <v>LeBron James</v>
+        <v>Kawhi Leonard</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP(A11,MVP!A:B,2,0)</f>
-        <v>LeBron James</v>
+        <v>Kevin Durant</v>
       </c>
       <c r="F11" t="str">
         <f>VLOOKUP(A11,DPOY!A:B,2,0)</f>
-        <v>Marc Gasol</v>
+        <v>Joakim Noah</v>
       </c>
       <c r="G11" t="str">
         <f>VLOOKUP(A11,ROTY!A:B,2,0)</f>
-        <v>Damian Lillard</v>
+        <v>Michael Carter-Williams</v>
       </c>
       <c r="H11" t="str">
         <f>VLOOKUP(A11,MIP!A:B,2,0)</f>
-        <v>Paul George</v>
+        <v>Goran Dragić</v>
       </c>
       <c r="I11" t="str">
         <f>VLOOKUP(A11,'6TH-MAN'!A:B,2,0)</f>
-        <v>J.R. Smith</v>
+        <v>Jamal Crawford</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="8">
-        <v>2012</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2013</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>320</v>
@@ -2333,73 +2355,73 @@
       </c>
       <c r="F12" t="str">
         <f>VLOOKUP(A12,DPOY!A:B,2,0)</f>
-        <v>Tyson Chandler</v>
+        <v>Marc Gasol</v>
       </c>
       <c r="G12" t="str">
         <f>VLOOKUP(A12,ROTY!A:B,2,0)</f>
-        <v>Kyrie Irving</v>
+        <v>Damian Lillard</v>
       </c>
       <c r="H12" t="str">
         <f>VLOOKUP(A12,MIP!A:B,2,0)</f>
-        <v>Ryan Anderson</v>
+        <v>Paul George</v>
       </c>
       <c r="I12" t="str">
         <f>VLOOKUP(A12,'6TH-MAN'!A:B,2,0)</f>
-        <v>James Harden</v>
+        <v>J.R. Smith</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="8">
-        <v>2011</v>
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2012</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP(A13,'Final MVP'!A:B,2,0)</f>
-        <v>Dirk Nowitzki</v>
+        <v>LeBron James</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP(A13,MVP!A:B,2,0)</f>
-        <v>Derrick Rose</v>
+        <v>LeBron James</v>
       </c>
       <c r="F13" t="str">
         <f>VLOOKUP(A13,DPOY!A:B,2,0)</f>
-        <v>Dwight Howard</v>
+        <v>Tyson Chandler</v>
       </c>
       <c r="G13" t="str">
         <f>VLOOKUP(A13,ROTY!A:B,2,0)</f>
-        <v>Blake Griffin</v>
+        <v>Kyrie Irving</v>
       </c>
       <c r="H13" t="str">
         <f>VLOOKUP(A13,MIP!A:B,2,0)</f>
-        <v>Kevin Love</v>
+        <v>Ryan Anderson</v>
       </c>
       <c r="I13" t="str">
         <f>VLOOKUP(A13,'6TH-MAN'!A:B,2,0)</f>
-        <v>Lamar Odom</v>
+        <v>James Harden</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2010</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2011</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP(A14,'Final MVP'!A:B,2,0)</f>
-        <v>Kobe Bryant</v>
+        <v>Dirk Nowitzki</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP(A14,MVP!A:B,2,0)</f>
-        <v>LeBron James</v>
+        <v>Derrick Rose</v>
       </c>
       <c r="F14" t="str">
         <f>VLOOKUP(A14,DPOY!A:B,2,0)</f>
@@ -2407,23 +2429,23 @@
       </c>
       <c r="G14" t="str">
         <f>VLOOKUP(A14,ROTY!A:B,2,0)</f>
-        <v>Tyreke Evans</v>
+        <v>Blake Griffin</v>
       </c>
       <c r="H14" t="str">
         <f>VLOOKUP(A14,MIP!A:B,2,0)</f>
-        <v>Aaron Brooks</v>
+        <v>Kevin Love</v>
       </c>
       <c r="I14" t="str">
         <f>VLOOKUP(A14,'6TH-MAN'!A:B,2,0)</f>
-        <v>Jamal Crawford</v>
+        <v>Lamar Odom</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2009</v>
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2010</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>316</v>
@@ -2442,135 +2464,135 @@
       </c>
       <c r="G15" t="str">
         <f>VLOOKUP(A15,ROTY!A:B,2,0)</f>
-        <v>Derrick Rose</v>
+        <v>Tyreke Evans</v>
       </c>
       <c r="H15" t="str">
         <f>VLOOKUP(A15,MIP!A:B,2,0)</f>
-        <v>Danny Granger</v>
+        <v>Aaron Brooks</v>
       </c>
       <c r="I15" t="str">
         <f>VLOOKUP(A15,'6TH-MAN'!A:B,2,0)</f>
-        <v>Jason Terry</v>
+        <v>Jamal Crawford</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="8">
-        <v>2008</v>
+        <v>23</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2009</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(A16,'Final MVP'!A:B,2,0)</f>
-        <v>Paul Pierce</v>
+        <v>Kobe Bryant</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP(A16,MVP!A:B,2,0)</f>
-        <v>Kobe Bryant</v>
+        <v>LeBron James</v>
       </c>
       <c r="F16" t="str">
         <f>VLOOKUP(A16,DPOY!A:B,2,0)</f>
-        <v>Kevin Garnett</v>
+        <v>Dwight Howard</v>
       </c>
       <c r="G16" t="str">
         <f>VLOOKUP(A16,ROTY!A:B,2,0)</f>
-        <v>Kevin Durant</v>
+        <v>Derrick Rose</v>
       </c>
       <c r="H16" t="str">
         <f>VLOOKUP(A16,MIP!A:B,2,0)</f>
-        <v>Hedo Türkoğlu</v>
+        <v>Danny Granger</v>
       </c>
       <c r="I16" t="str">
         <f>VLOOKUP(A16,'6TH-MAN'!A:B,2,0)</f>
-        <v>Manu Ginóbili</v>
+        <v>Jason Terry</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="8">
-        <v>2007</v>
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2008</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(A17,'Final MVP'!A:B,2,0)</f>
-        <v>Tony Parker</v>
+        <v>Paul Pierce</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP(A17,MVP!A:B,2,0)</f>
-        <v>Dirk Nowitzki</v>
+        <v>Kobe Bryant</v>
       </c>
       <c r="F17" t="str">
         <f>VLOOKUP(A17,DPOY!A:B,2,0)</f>
-        <v>Marcus Camby</v>
+        <v>Kevin Garnett</v>
       </c>
       <c r="G17" t="str">
         <f>VLOOKUP(A17,ROTY!A:B,2,0)</f>
-        <v>Brandon Roy</v>
+        <v>Kevin Durant</v>
       </c>
       <c r="H17" t="str">
         <f>VLOOKUP(A17,MIP!A:B,2,0)</f>
-        <v>Monta Ellis</v>
+        <v>Hedo Türkoğlu</v>
       </c>
       <c r="I17" t="str">
         <f>VLOOKUP(A17,'6TH-MAN'!A:B,2,0)</f>
-        <v>Leandro Barbosa</v>
+        <v>Manu Ginóbili</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="8">
-        <v>2006</v>
+        <v>26</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2007</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(A18,'Final MVP'!A:B,2,0)</f>
-        <v>Dwyane Wade</v>
+        <v>Tony Parker</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP(A18,MVP!A:B,2,0)</f>
-        <v>Steve Nash</v>
+        <v>Dirk Nowitzki</v>
       </c>
       <c r="F18" t="str">
         <f>VLOOKUP(A18,DPOY!A:B,2,0)</f>
-        <v>Ben Wallace</v>
+        <v>Marcus Camby</v>
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP(A18,ROTY!A:B,2,0)</f>
-        <v>Chris Paul</v>
+        <v>Brandon Roy</v>
       </c>
       <c r="H18" t="str">
         <f>VLOOKUP(A18,MIP!A:B,2,0)</f>
-        <v>Boris Diaw</v>
+        <v>Monta Ellis</v>
       </c>
       <c r="I18" t="str">
         <f>VLOOKUP(A18,'6TH-MAN'!A:B,2,0)</f>
-        <v>Mike Miller</v>
+        <v>Leandro Barbosa</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="8">
-        <v>2005</v>
+        <v>28</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2006</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(A19,'Final MVP'!A:B,2,0)</f>
-        <v>Tim Duncan</v>
+        <v>Dwyane Wade</v>
       </c>
       <c r="E19" t="str">
         <f>VLOOKUP(A19,MVP!A:B,2,0)</f>
@@ -2582,100 +2604,100 @@
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP(A19,ROTY!A:B,2,0)</f>
-        <v>Emeka Okafor</v>
+        <v>Chris Paul</v>
       </c>
       <c r="H19" t="str">
         <f>VLOOKUP(A19,MIP!A:B,2,0)</f>
-        <v>Bobby Simmons</v>
+        <v>Boris Diaw</v>
       </c>
       <c r="I19" t="str">
         <f>VLOOKUP(A19,'6TH-MAN'!A:B,2,0)</f>
-        <v>Ben Gordon</v>
+        <v>Mike Miller</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="8">
-        <v>2004</v>
+        <v>30</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2005</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(A20,'Final MVP'!A:B,2,0)</f>
-        <v>Chauncey Billups</v>
+        <v>Tim Duncan</v>
       </c>
       <c r="E20" t="str">
         <f>VLOOKUP(A20,MVP!A:B,2,0)</f>
-        <v>Kevin Garnett</v>
+        <v>Steve Nash</v>
       </c>
       <c r="F20" t="str">
         <f>VLOOKUP(A20,DPOY!A:B,2,0)</f>
-        <v>Metta World Peace</v>
+        <v>Ben Wallace</v>
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP(A20,ROTY!A:B,2,0)</f>
-        <v>LeBron James</v>
+        <v>Emeka Okafor</v>
       </c>
       <c r="H20" t="str">
         <f>VLOOKUP(A20,MIP!A:B,2,0)</f>
-        <v>Zach Randolph</v>
+        <v>Bobby Simmons</v>
       </c>
       <c r="I20" t="str">
         <f>VLOOKUP(A20,'6TH-MAN'!A:B,2,0)</f>
-        <v>Antawn Jamison</v>
+        <v>Ben Gordon</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="8">
-        <v>2003</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2004</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D21" t="str">
         <f>VLOOKUP(A21,'Final MVP'!A:B,2,0)</f>
-        <v>Tim Duncan</v>
+        <v>Chauncey Billups</v>
       </c>
       <c r="E21" t="str">
         <f>VLOOKUP(A21,MVP!A:B,2,0)</f>
-        <v>Tim Duncan</v>
+        <v>Kevin Garnett</v>
       </c>
       <c r="F21" t="str">
         <f>VLOOKUP(A21,DPOY!A:B,2,0)</f>
-        <v>Ben Wallace</v>
+        <v>Metta World Peace</v>
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP(A21,ROTY!A:B,2,0)</f>
-        <v>Amar'e Stoudemire</v>
+        <v>LeBron James</v>
       </c>
       <c r="H21" t="str">
         <f>VLOOKUP(A21,MIP!A:B,2,0)</f>
-        <v>Gilbert Arenas</v>
+        <v>Zach Randolph</v>
       </c>
       <c r="I21" t="str">
         <f>VLOOKUP(A21,'6TH-MAN'!A:B,2,0)</f>
-        <v>Bobby Jackson</v>
+        <v>Antawn Jamison</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="8">
-        <v>2002</v>
+        <v>33</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2003</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D22" t="str">
         <f>VLOOKUP(A22,'Final MVP'!A:B,2,0)</f>
-        <v>Shaquille O'Neal</v>
+        <v>Tim Duncan</v>
       </c>
       <c r="E22" t="str">
         <f>VLOOKUP(A22,MVP!A:B,2,0)</f>
@@ -2687,23 +2709,23 @@
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP(A22,ROTY!A:B,2,0)</f>
-        <v>Pau Gasol</v>
+        <v>Amar'e Stoudemire</v>
       </c>
       <c r="H22" t="str">
         <f>VLOOKUP(A22,MIP!A:B,2,0)</f>
-        <v>Jermaine O'Neal</v>
+        <v>Gilbert Arenas</v>
       </c>
       <c r="I22" t="str">
         <f>VLOOKUP(A22,'6TH-MAN'!A:B,2,0)</f>
-        <v>Corliss Williamson</v>
+        <v>Bobby Jackson</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="8">
-        <v>2001</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2002</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>316</v>
@@ -2714,31 +2736,31 @@
       </c>
       <c r="E23" t="str">
         <f>VLOOKUP(A23,MVP!A:B,2,0)</f>
-        <v>Allen Iverson</v>
+        <v>Tim Duncan</v>
       </c>
       <c r="F23" t="str">
         <f>VLOOKUP(A23,DPOY!A:B,2,0)</f>
-        <v>Dikembe Mutombo</v>
+        <v>Ben Wallace</v>
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP(A23,ROTY!A:B,2,0)</f>
-        <v>Mike Miller</v>
+        <v>Pau Gasol</v>
       </c>
       <c r="H23" t="str">
         <f>VLOOKUP(A23,MIP!A:B,2,0)</f>
-        <v>Tracy McGrady</v>
+        <v>Jermaine O'Neal</v>
       </c>
       <c r="I23" t="str">
         <f>VLOOKUP(A23,'6TH-MAN'!A:B,2,0)</f>
-        <v>Aaron McKie</v>
+        <v>Corliss Williamson</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="7">
-        <v>2000</v>
+        <v>36</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2001</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>316</v>
@@ -2749,42 +2771,42 @@
       </c>
       <c r="E24" t="str">
         <f>VLOOKUP(A24,MVP!A:B,2,0)</f>
-        <v>Shaquille O'Neal</v>
+        <v>Allen Iverson</v>
       </c>
       <c r="F24" t="str">
         <f>VLOOKUP(A24,DPOY!A:B,2,0)</f>
-        <v>Alonzo Mourning</v>
+        <v>Dikembe Mutombo</v>
       </c>
       <c r="G24" t="str">
         <f>VLOOKUP(A24,ROTY!A:B,2,0)</f>
-        <v>Steve Francis (Tie)</v>
+        <v>Mike Miller</v>
       </c>
       <c r="H24" t="str">
         <f>VLOOKUP(A24,MIP!A:B,2,0)</f>
-        <v>Jalen Rose</v>
+        <v>Tracy McGrady</v>
       </c>
       <c r="I24" t="str">
         <f>VLOOKUP(A24,'6TH-MAN'!A:B,2,0)</f>
-        <v>Rodney Rogers</v>
+        <v>Aaron McKie</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1999</v>
+        <v>38</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2000</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D25" t="str">
         <f>VLOOKUP(A25,'Final MVP'!A:B,2,0)</f>
-        <v>Tim Duncan</v>
+        <v>Shaquille O'Neal</v>
       </c>
       <c r="E25" t="str">
         <f>VLOOKUP(A25,MVP!A:B,2,0)</f>
-        <v>Karl Malone</v>
+        <v>Shaquille O'Neal</v>
       </c>
       <c r="F25" t="str">
         <f>VLOOKUP(A25,DPOY!A:B,2,0)</f>
@@ -2792,58 +2814,58 @@
       </c>
       <c r="G25" t="str">
         <f>VLOOKUP(A25,ROTY!A:B,2,0)</f>
-        <v>Vince Carter</v>
+        <v>Steve Francis (Tie)</v>
       </c>
       <c r="H25" t="str">
         <f>VLOOKUP(A25,MIP!A:B,2,0)</f>
-        <v>Darrell Armstrong</v>
+        <v>Jalen Rose</v>
       </c>
       <c r="I25" t="str">
         <f>VLOOKUP(A25,'6TH-MAN'!A:B,2,0)</f>
-        <v>Darrell Armstrong</v>
+        <v>Rodney Rogers</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="8">
-        <v>1998</v>
+        <v>40</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1999</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D26" t="str">
         <f>VLOOKUP(A26,'Final MVP'!A:B,2,0)</f>
-        <v>Michael Jordan</v>
+        <v>Tim Duncan</v>
       </c>
       <c r="E26" t="str">
         <f>VLOOKUP(A26,MVP!A:B,2,0)</f>
-        <v>Michael Jordan</v>
+        <v>Karl Malone</v>
       </c>
       <c r="F26" t="str">
         <f>VLOOKUP(A26,DPOY!A:B,2,0)</f>
-        <v>Dikembe Mutombo</v>
+        <v>Alonzo Mourning</v>
       </c>
       <c r="G26" t="str">
         <f>VLOOKUP(A26,ROTY!A:B,2,0)</f>
-        <v>Tim Duncan</v>
+        <v>Vince Carter</v>
       </c>
       <c r="H26" t="str">
         <f>VLOOKUP(A26,MIP!A:B,2,0)</f>
-        <v>Alan Henderson</v>
+        <v>Darrell Armstrong</v>
       </c>
       <c r="I26" t="str">
         <f>VLOOKUP(A26,'6TH-MAN'!A:B,2,0)</f>
-        <v>Danny Manning</v>
+        <v>Darrell Armstrong</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="8">
-        <v>1997</v>
+        <v>42</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1998</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>324</v>
@@ -2854,7 +2876,7 @@
       </c>
       <c r="E27" t="str">
         <f>VLOOKUP(A27,MVP!A:B,2,0)</f>
-        <v>Karl Malone</v>
+        <v>Michael Jordan</v>
       </c>
       <c r="F27" t="str">
         <f>VLOOKUP(A27,DPOY!A:B,2,0)</f>
@@ -2862,23 +2884,23 @@
       </c>
       <c r="G27" t="str">
         <f>VLOOKUP(A27,ROTY!A:B,2,0)</f>
-        <v>Allen Iverson</v>
+        <v>Tim Duncan</v>
       </c>
       <c r="H27" t="str">
         <f>VLOOKUP(A27,MIP!A:B,2,0)</f>
-        <v>Isaac Austin</v>
+        <v>Alan Henderson</v>
       </c>
       <c r="I27" t="str">
         <f>VLOOKUP(A27,'6TH-MAN'!A:B,2,0)</f>
-        <v>John Starks</v>
+        <v>Danny Manning</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="8">
-        <v>1996</v>
+        <v>44</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1997</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>324</v>
@@ -2889,66 +2911,66 @@
       </c>
       <c r="E28" t="str">
         <f>VLOOKUP(A28,MVP!A:B,2,0)</f>
-        <v>Michael Jordan</v>
+        <v>Karl Malone</v>
       </c>
       <c r="F28" t="str">
         <f>VLOOKUP(A28,DPOY!A:B,2,0)</f>
-        <v>Gary Payton</v>
+        <v>Dikembe Mutombo</v>
       </c>
       <c r="G28" t="str">
         <f>VLOOKUP(A28,ROTY!A:B,2,0)</f>
-        <v>Damon Stoudamire</v>
+        <v>Allen Iverson</v>
       </c>
       <c r="H28" t="str">
         <f>VLOOKUP(A28,MIP!A:B,2,0)</f>
-        <v>Gheorghe Mureșan</v>
+        <v>Isaac Austin</v>
       </c>
       <c r="I28" t="str">
         <f>VLOOKUP(A28,'6TH-MAN'!A:B,2,0)</f>
-        <v>Toni Kukoč</v>
+        <v>John Starks</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="8">
-        <v>1995</v>
+        <v>45</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1996</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D29" t="str">
         <f>VLOOKUP(A29,'Final MVP'!A:B,2,0)</f>
-        <v>Hakeem Olajuwon</v>
+        <v>Michael Jordan</v>
       </c>
       <c r="E29" t="str">
         <f>VLOOKUP(A29,MVP!A:B,2,0)</f>
-        <v>David Robinson</v>
+        <v>Michael Jordan</v>
       </c>
       <c r="F29" t="str">
         <f>VLOOKUP(A29,DPOY!A:B,2,0)</f>
-        <v>Dikembe Mutombo</v>
+        <v>Gary Payton</v>
       </c>
       <c r="G29" t="str">
         <f>VLOOKUP(A29,ROTY!A:B,2,0)</f>
-        <v>Grant Hill (Tie)</v>
+        <v>Damon Stoudamire</v>
       </c>
       <c r="H29" t="str">
         <f>VLOOKUP(A29,MIP!A:B,2,0)</f>
-        <v>Dana Barros</v>
+        <v>Gheorghe Mureșan</v>
       </c>
       <c r="I29" t="str">
         <f>VLOOKUP(A29,'6TH-MAN'!A:B,2,0)</f>
-        <v>Anthony Mason</v>
+        <v>Toni Kukoč</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="8">
-        <v>1994</v>
+        <v>46</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1995</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>325</v>
@@ -2959,42 +2981,42 @@
       </c>
       <c r="E30" t="str">
         <f>VLOOKUP(A30,MVP!A:B,2,0)</f>
-        <v>Hakeem Olajuwon</v>
+        <v>David Robinson</v>
       </c>
       <c r="F30" t="str">
         <f>VLOOKUP(A30,DPOY!A:B,2,0)</f>
-        <v>Hakeem Olajuwon</v>
+        <v>Dikembe Mutombo</v>
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP(A30,ROTY!A:B,2,0)</f>
-        <v>Chris Webber</v>
+        <v>Grant Hill (Tie)</v>
       </c>
       <c r="H30" t="str">
         <f>VLOOKUP(A30,MIP!A:B,2,0)</f>
-        <v>Don MacLean</v>
+        <v>Dana Barros</v>
       </c>
       <c r="I30" t="str">
         <f>VLOOKUP(A30,'6TH-MAN'!A:B,2,0)</f>
-        <v>Dell Curry</v>
+        <v>Anthony Mason</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1993</v>
+        <v>48</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1994</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D31" t="str">
         <f>VLOOKUP(A31,'Final MVP'!A:B,2,0)</f>
-        <v>Michael Jordan</v>
+        <v>Hakeem Olajuwon</v>
       </c>
       <c r="E31" t="str">
         <f>VLOOKUP(A31,MVP!A:B,2,0)</f>
-        <v>Charles Barkley</v>
+        <v>Hakeem Olajuwon</v>
       </c>
       <c r="F31" t="str">
         <f>VLOOKUP(A31,DPOY!A:B,2,0)</f>
@@ -3002,23 +3024,23 @@
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP(A31,ROTY!A:B,2,0)</f>
-        <v>Shaquille O'Neal</v>
+        <v>Chris Webber</v>
       </c>
       <c r="H31" t="str">
         <f>VLOOKUP(A31,MIP!A:B,2,0)</f>
-        <v>Mahmoud Abdul-Rauf</v>
+        <v>Don MacLean</v>
       </c>
       <c r="I31" t="str">
         <f>VLOOKUP(A31,'6TH-MAN'!A:B,2,0)</f>
-        <v>Clifford Robinson</v>
+        <v>Dell Curry</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="8">
-        <v>1992</v>
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1993</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>324</v>
@@ -3029,31 +3051,31 @@
       </c>
       <c r="E32" t="str">
         <f>VLOOKUP(A32,MVP!A:B,2,0)</f>
-        <v>Michael Jordan</v>
+        <v>Charles Barkley</v>
       </c>
       <c r="F32" t="str">
         <f>VLOOKUP(A32,DPOY!A:B,2,0)</f>
-        <v>David Robinson</v>
+        <v>Hakeem Olajuwon</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP(A32,ROTY!A:B,2,0)</f>
-        <v>Larry Johnson</v>
+        <v>Shaquille O'Neal</v>
       </c>
       <c r="H32" t="str">
         <f>VLOOKUP(A32,MIP!A:B,2,0)</f>
-        <v>Pervis Ellison</v>
+        <v>Mahmoud Abdul-Rauf</v>
       </c>
       <c r="I32" t="str">
         <f>VLOOKUP(A32,'6TH-MAN'!A:B,2,0)</f>
-        <v>Detlef Schrempf</v>
+        <v>Clifford Robinson</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="8">
-        <v>1991</v>
+        <v>52</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1992</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>324</v>
@@ -3068,15 +3090,15 @@
       </c>
       <c r="F33" t="str">
         <f>VLOOKUP(A33,DPOY!A:B,2,0)</f>
-        <v>Dennis Rodman</v>
+        <v>David Robinson</v>
       </c>
       <c r="G33" t="str">
         <f>VLOOKUP(A33,ROTY!A:B,2,0)</f>
-        <v>Derrick Coleman</v>
+        <v>Larry Johnson</v>
       </c>
       <c r="H33" t="str">
         <f>VLOOKUP(A33,MIP!A:B,2,0)</f>
-        <v>Scott Skiles</v>
+        <v>Pervis Ellison</v>
       </c>
       <c r="I33" t="str">
         <f>VLOOKUP(A33,'6TH-MAN'!A:B,2,0)</f>
@@ -3085,21 +3107,21 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="8">
-        <v>1990</v>
+        <v>53</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1991</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D34" t="str">
         <f>VLOOKUP(A34,'Final MVP'!A:B,2,0)</f>
-        <v>Isiah Thomas</v>
+        <v>Michael Jordan</v>
       </c>
       <c r="E34" t="str">
         <f>VLOOKUP(A34,MVP!A:B,2,0)</f>
-        <v>Magic Johnson</v>
+        <v>Michael Jordan</v>
       </c>
       <c r="F34" t="str">
         <f>VLOOKUP(A34,DPOY!A:B,2,0)</f>
@@ -3107,30 +3129,30 @@
       </c>
       <c r="G34" t="str">
         <f>VLOOKUP(A34,ROTY!A:B,2,0)</f>
-        <v>David Robinson</v>
+        <v>Derrick Coleman</v>
       </c>
       <c r="H34" t="str">
         <f>VLOOKUP(A34,MIP!A:B,2,0)</f>
-        <v>Rony Seikaly</v>
+        <v>Scott Skiles</v>
       </c>
       <c r="I34" t="str">
         <f>VLOOKUP(A34,'6TH-MAN'!A:B,2,0)</f>
-        <v>Ricky Pierce</v>
+        <v>Detlef Schrempf</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="8">
-        <v>1989</v>
+        <v>54</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1990</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>323</v>
       </c>
       <c r="D35" t="str">
         <f>VLOOKUP(A35,'Final MVP'!A:B,2,0)</f>
-        <v>Joe Dumars</v>
+        <v>Isiah Thomas</v>
       </c>
       <c r="E35" t="str">
         <f>VLOOKUP(A35,MVP!A:B,2,0)</f>
@@ -3138,139 +3160,139 @@
       </c>
       <c r="F35" t="str">
         <f>VLOOKUP(A35,DPOY!A:B,2,0)</f>
-        <v>Mark Eaton</v>
+        <v>Dennis Rodman</v>
       </c>
       <c r="G35" t="str">
         <f>VLOOKUP(A35,ROTY!A:B,2,0)</f>
-        <v>Mitch Richmond</v>
+        <v>David Robinson</v>
       </c>
       <c r="H35" t="str">
         <f>VLOOKUP(A35,MIP!A:B,2,0)</f>
-        <v>Kevin Johnson</v>
+        <v>Rony Seikaly</v>
       </c>
       <c r="I35" t="str">
         <f>VLOOKUP(A35,'6TH-MAN'!A:B,2,0)</f>
-        <v>Eddie Johnson</v>
+        <v>Ricky Pierce</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="8">
-        <v>1988</v>
+        <v>56</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1989</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D36" t="str">
         <f>VLOOKUP(A36,'Final MVP'!A:B,2,0)</f>
-        <v>James Worthy</v>
+        <v>Joe Dumars</v>
       </c>
       <c r="E36" t="str">
         <f>VLOOKUP(A36,MVP!A:B,2,0)</f>
-        <v>Michael Jordan</v>
+        <v>Magic Johnson</v>
       </c>
       <c r="F36" t="str">
         <f>VLOOKUP(A36,DPOY!A:B,2,0)</f>
-        <v>Michael Jordan</v>
+        <v>Mark Eaton</v>
       </c>
       <c r="G36" t="str">
         <f>VLOOKUP(A36,ROTY!A:B,2,0)</f>
-        <v>Mark Jackson</v>
+        <v>Mitch Richmond</v>
       </c>
       <c r="H36" t="str">
         <f>VLOOKUP(A36,MIP!A:B,2,0)</f>
-        <v>Kevin Duckworth</v>
+        <v>Kevin Johnson</v>
       </c>
       <c r="I36" t="str">
         <f>VLOOKUP(A36,'6TH-MAN'!A:B,2,0)</f>
-        <v>Roy Tarpley</v>
+        <v>Eddie Johnson</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="8">
-        <v>1987</v>
+        <v>57</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1988</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D37" t="str">
         <f>VLOOKUP(A37,'Final MVP'!A:B,2,0)</f>
-        <v>Magic Johnson</v>
+        <v>James Worthy</v>
       </c>
       <c r="E37" t="str">
         <f>VLOOKUP(A37,MVP!A:B,2,0)</f>
-        <v>Magic Johnson</v>
+        <v>Michael Jordan</v>
       </c>
       <c r="F37" t="str">
         <f>VLOOKUP(A37,DPOY!A:B,2,0)</f>
-        <v>Michael Cooper</v>
+        <v>Michael Jordan</v>
       </c>
       <c r="G37" t="str">
         <f>VLOOKUP(A37,ROTY!A:B,2,0)</f>
-        <v>Chuck Person</v>
+        <v>Mark Jackson</v>
       </c>
       <c r="H37" t="str">
         <f>VLOOKUP(A37,MIP!A:B,2,0)</f>
-        <v>Dale Ellis</v>
+        <v>Kevin Duckworth</v>
       </c>
       <c r="I37" t="str">
         <f>VLOOKUP(A37,'6TH-MAN'!A:B,2,0)</f>
-        <v>Ricky Pierce</v>
+        <v>Roy Tarpley</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="8">
-        <v>1986</v>
+        <v>58</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1987</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D38" t="str">
         <f>VLOOKUP(A38,'Final MVP'!A:B,2,0)</f>
-        <v>Larry Bird</v>
+        <v>Magic Johnson</v>
       </c>
       <c r="E38" t="str">
         <f>VLOOKUP(A38,MVP!A:B,2,0)</f>
-        <v>Larry Bird</v>
+        <v>Magic Johnson</v>
       </c>
       <c r="F38" t="str">
         <f>VLOOKUP(A38,DPOY!A:B,2,0)</f>
-        <v>Alvin Robertson</v>
+        <v>Michael Cooper</v>
       </c>
       <c r="G38" t="str">
         <f>VLOOKUP(A38,ROTY!A:B,2,0)</f>
-        <v>Patrick Ewing</v>
+        <v>Chuck Person</v>
       </c>
       <c r="H38" t="str">
         <f>VLOOKUP(A38,MIP!A:B,2,0)</f>
-        <v>Alvin Robertson</v>
+        <v>Dale Ellis</v>
       </c>
       <c r="I38" t="str">
         <f>VLOOKUP(A38,'6TH-MAN'!A:B,2,0)</f>
-        <v>Bill Walton</v>
+        <v>Ricky Pierce</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="8">
-        <v>1985</v>
+        <v>59</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1986</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D39" t="str">
         <f>VLOOKUP(A39,'Final MVP'!A:B,2,0)</f>
-        <v>Kareem Abdul-Jabbar</v>
+        <v>Larry Bird</v>
       </c>
       <c r="E39" t="str">
         <f>VLOOKUP(A39,MVP!A:B,2,0)</f>
@@ -3278,34 +3300,34 @@
       </c>
       <c r="F39" t="str">
         <f>VLOOKUP(A39,DPOY!A:B,2,0)</f>
-        <v>Mark Eaton</v>
+        <v>Alvin Robertson</v>
       </c>
       <c r="G39" t="str">
         <f>VLOOKUP(A39,ROTY!A:B,2,0)</f>
-        <v>Michael Jordan</v>
+        <v>Patrick Ewing</v>
       </c>
       <c r="H39" t="str">
         <f>VLOOKUP(A39,MIP!A:B,2,0)</f>
-        <v>Award didn't exist</v>
+        <v>Alvin Robertson</v>
       </c>
       <c r="I39" t="str">
         <f>VLOOKUP(A39,'6TH-MAN'!A:B,2,0)</f>
-        <v>Kevin McHale</v>
+        <v>Bill Walton</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="8">
-        <v>1984</v>
+        <v>61</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1985</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D40" t="str">
         <f>VLOOKUP(A40,'Final MVP'!A:B,2,0)</f>
-        <v>Larry Bird</v>
+        <v>Kareem Abdul-Jabbar</v>
       </c>
       <c r="E40" t="str">
         <f>VLOOKUP(A40,MVP!A:B,2,0)</f>
@@ -3313,11 +3335,11 @@
       </c>
       <c r="F40" t="str">
         <f>VLOOKUP(A40,DPOY!A:B,2,0)</f>
-        <v>Sidney Moncrief</v>
+        <v>Mark Eaton</v>
       </c>
       <c r="G40" t="str">
         <f>VLOOKUP(A40,ROTY!A:B,2,0)</f>
-        <v>Ralph Sampson</v>
+        <v>Michael Jordan</v>
       </c>
       <c r="H40" t="str">
         <f>VLOOKUP(A40,MIP!A:B,2,0)</f>
@@ -3330,21 +3352,21 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="8">
-        <v>1983</v>
+        <v>62</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1984</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D41" t="str">
         <f>VLOOKUP(A41,'Final MVP'!A:B,2,0)</f>
-        <v>Moses Malone</v>
+        <v>Larry Bird</v>
       </c>
       <c r="E41" t="str">
         <f>VLOOKUP(A41,MVP!A:B,2,0)</f>
-        <v>Moses Malone</v>
+        <v>Larry Bird</v>
       </c>
       <c r="F41" t="str">
         <f>VLOOKUP(A41,DPOY!A:B,2,0)</f>
@@ -3352,7 +3374,7 @@
       </c>
       <c r="G41" t="str">
         <f>VLOOKUP(A41,ROTY!A:B,2,0)</f>
-        <v>Terry Cummings</v>
+        <v>Ralph Sampson</v>
       </c>
       <c r="H41" t="str">
         <f>VLOOKUP(A41,MIP!A:B,2,0)</f>
@@ -3360,22 +3382,22 @@
       </c>
       <c r="I41" t="str">
         <f>VLOOKUP(A41,'6TH-MAN'!A:B,2,0)</f>
-        <v>Bobby Jones</v>
+        <v>Kevin McHale</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="8">
-        <v>1982</v>
+        <v>63</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1983</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D42" t="str">
         <f>VLOOKUP(A42,'Final MVP'!A:B,2,0)</f>
-        <v>Magic Johnson</v>
+        <v>Moses Malone</v>
       </c>
       <c r="E42" t="str">
         <f>VLOOKUP(A42,MVP!A:B,2,0)</f>
@@ -3383,11 +3405,11 @@
       </c>
       <c r="F42" t="str">
         <f>VLOOKUP(A42,DPOY!A:B,2,0)</f>
-        <v>Award didn't exist</v>
+        <v>Sidney Moncrief</v>
       </c>
       <c r="G42" t="str">
         <f>VLOOKUP(A42,ROTY!A:B,2,0)</f>
-        <v>Buck Williams</v>
+        <v>Terry Cummings</v>
       </c>
       <c r="H42" t="str">
         <f>VLOOKUP(A42,MIP!A:B,2,0)</f>
@@ -3395,26 +3417,26 @@
       </c>
       <c r="I42" t="str">
         <f>VLOOKUP(A42,'6TH-MAN'!A:B,2,0)</f>
-        <v>Award didn't exist</v>
+        <v>Bobby Jones</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="8">
-        <v>1981</v>
+        <v>65</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1982</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D43" t="str">
         <f>VLOOKUP(A43,'Final MVP'!A:B,2,0)</f>
-        <v>Cedric Maxwell</v>
+        <v>Magic Johnson</v>
       </c>
       <c r="E43" t="str">
         <f>VLOOKUP(A43,MVP!A:B,2,0)</f>
-        <v>Julius Erving</v>
+        <v>Moses Malone</v>
       </c>
       <c r="F43" t="str">
         <f>VLOOKUP(A43,DPOY!A:B,2,0)</f>
@@ -3422,7 +3444,7 @@
       </c>
       <c r="G43" t="str">
         <f>VLOOKUP(A43,ROTY!A:B,2,0)</f>
-        <v>Darrell Griffith</v>
+        <v>Buck Williams</v>
       </c>
       <c r="H43" t="str">
         <f>VLOOKUP(A43,MIP!A:B,2,0)</f>
@@ -3435,21 +3457,21 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="8">
-        <v>1980</v>
+        <v>66</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1981</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D44" t="str">
         <f>VLOOKUP(A44,'Final MVP'!A:B,2,0)</f>
-        <v>Magic Johnson</v>
+        <v>Cedric Maxwell</v>
       </c>
       <c r="E44" t="str">
         <f>VLOOKUP(A44,MVP!A:B,2,0)</f>
-        <v>Kareem Abdul-Jabbar</v>
+        <v>Julius Erving</v>
       </c>
       <c r="F44" t="str">
         <f>VLOOKUP(A44,DPOY!A:B,2,0)</f>
@@ -3457,7 +3479,7 @@
       </c>
       <c r="G44" t="str">
         <f>VLOOKUP(A44,ROTY!A:B,2,0)</f>
-        <v>Larry Bird</v>
+        <v>Darrell Griffith</v>
       </c>
       <c r="H44" t="str">
         <f>VLOOKUP(A44,MIP!A:B,2,0)</f>
@@ -3469,9 +3491,39 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" t="str">
+        <f>VLOOKUP(A45,'Final MVP'!A:B,2,0)</f>
+        <v>Magic Johnson</v>
+      </c>
+      <c r="E45" t="str">
+        <f>VLOOKUP(A45,MVP!A:B,2,0)</f>
+        <v>Kareem Abdul-Jabbar</v>
+      </c>
+      <c r="F45" t="str">
+        <f>VLOOKUP(A45,DPOY!A:B,2,0)</f>
+        <v>Award didn't exist</v>
+      </c>
+      <c r="G45" t="str">
+        <f>VLOOKUP(A45,ROTY!A:B,2,0)</f>
+        <v>Larry Bird</v>
+      </c>
+      <c r="H45" t="str">
+        <f>VLOOKUP(A45,MIP!A:B,2,0)</f>
+        <v>Award didn't exist</v>
+      </c>
+      <c r="I45" t="str">
+        <f>VLOOKUP(A45,'6TH-MAN'!A:B,2,0)</f>
+        <v>Award didn't exist</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -3589,8 +3641,8 @@
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3624,6 +3676,8 @@
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3655,6 +3709,9 @@
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3664,10 +3721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DCD28D-2119-4764-BA27-097BC9E6CF8A}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3685,47 +3742,47 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>314</v>
@@ -3733,39 +3790,39 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>320</v>
@@ -3773,23 +3830,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>316</v>
@@ -3797,63 +3854,63 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>316</v>
@@ -3861,7 +3918,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>316</v>
@@ -3869,23 +3926,23 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>324</v>
@@ -3893,7 +3950,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>324</v>
@@ -3901,15 +3958,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>325</v>
@@ -3917,15 +3974,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>324</v>
@@ -3933,7 +3990,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>324</v>
@@ -3941,15 +3998,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>323</v>
@@ -3957,15 +4014,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>316</v>
@@ -3973,63 +4030,67 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -4124,7 +4185,7 @@
       <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="1"/>
       <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -4152,6 +4213,7 @@
       <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
       <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -4184,17 +4246,21 @@
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
     </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4213,15 +4279,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -4229,15 +4295,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -4245,31 +4311,31 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -4277,23 +4343,23 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>18</v>
@@ -4301,23 +4367,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>18</v>
@@ -4325,31 +4391,31 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
@@ -4357,23 +4423,23 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -4381,87 +4447,87 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>43</v>
@@ -4469,15 +4535,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>55</v>
@@ -4485,31 +4551,31 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>60</v>
@@ -4517,7 +4583,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>60</v>
@@ -4525,15 +4591,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>64</v>
@@ -4541,47 +4607,47 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>69</v>
@@ -4589,39 +4655,39 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>69</v>
@@ -4629,31 +4695,31 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>87</v>
@@ -4661,7 +4727,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>87</v>
@@ -4669,31 +4735,31 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>91</v>
@@ -4701,7 +4767,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>91</v>
@@ -4709,55 +4775,55 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>171</v>
@@ -4765,7 +4831,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>171</v>
@@ -4773,7 +4839,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>171</v>
@@ -4789,7 +4855,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>171</v>
@@ -4797,9 +4863,17 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4811,10 +4885,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4833,47 +4907,47 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4881,39 +4955,39 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>237</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>18</v>
@@ -4921,23 +4995,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>25</v>
@@ -4945,63 +5019,63 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>241</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>39</v>
@@ -5009,7 +5083,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>39</v>
@@ -5017,23 +5091,23 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>43</v>
@@ -5041,7 +5115,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>43</v>
@@ -5049,15 +5123,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>49</v>
@@ -5065,15 +5139,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>43</v>
@@ -5081,7 +5155,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>43</v>
@@ -5089,191 +5163,191 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>242</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>246</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>249</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>171</v>
@@ -5281,7 +5355,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>171</v>
@@ -5289,7 +5363,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>171</v>
@@ -5297,7 +5371,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>171</v>
@@ -5305,15 +5379,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>171</v>
@@ -5321,7 +5395,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>171</v>
@@ -5329,7 +5403,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>171</v>
@@ -5337,7 +5411,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>171</v>
@@ -5345,7 +5419,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>171</v>
@@ -5353,7 +5427,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>171</v>
@@ -5361,7 +5435,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>171</v>
@@ -5369,7 +5443,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>171</v>
@@ -5377,7 +5451,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>171</v>
@@ -5385,7 +5459,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>171</v>
@@ -5393,7 +5467,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>171</v>
@@ -5409,17 +5483,25 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B74" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5431,10 +5513,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5453,39 +5535,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>218</v>
+        <v>336</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>219</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>219</v>
@@ -5493,23 +5575,23 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>221</v>
@@ -5517,39 +5599,39 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>225</v>
@@ -5557,7 +5639,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>225</v>
@@ -5565,151 +5647,152 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>232</v>
@@ -5717,55 +5800,55 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>234</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>236</v>
@@ -5773,15 +5856,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>171</v>
@@ -5789,7 +5872,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>171</v>
@@ -5797,7 +5880,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>171</v>
@@ -5805,7 +5888,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>171</v>
@@ -5813,7 +5896,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>171</v>
@@ -5821,7 +5904,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>171</v>
@@ -5829,7 +5912,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>171</v>
@@ -5837,7 +5920,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>171</v>
@@ -5845,7 +5928,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>171</v>
@@ -5853,7 +5936,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>171</v>
@@ -5861,7 +5944,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>171</v>
@@ -5869,7 +5952,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>171</v>
@@ -5877,7 +5960,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>171</v>
@@ -5885,7 +5968,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>171</v>
@@ -5893,7 +5976,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>171</v>
@@ -5901,7 +5984,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>171</v>
@@ -5909,7 +5992,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>171</v>
@@ -5917,7 +6000,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>171</v>
@@ -5925,7 +6008,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>171</v>
@@ -5933,7 +6016,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>171</v>
@@ -5941,7 +6024,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>171</v>
@@ -5949,7 +6032,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>171</v>
@@ -5957,7 +6040,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>171</v>
@@ -5965,7 +6048,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>171</v>
@@ -5973,7 +6056,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>171</v>
@@ -5981,15 +6064,15 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>171</v>
@@ -5997,7 +6080,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>171</v>
@@ -6005,7 +6088,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>171</v>
@@ -6013,7 +6096,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>171</v>
@@ -6029,7 +6112,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>171</v>
@@ -6037,9 +6120,17 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6050,10 +6141,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:A78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6072,186 +6163,186 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>104</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6259,47 +6350,47 @@
         <v>38</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -6307,199 +6398,199 @@
         <v>46</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -6507,159 +6598,159 @@
         <v>81</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -6667,22 +6758,30 @@
         <v>164</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B79" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6693,10 +6792,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6715,495 +6814,495 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>171</v>
@@ -7211,7 +7310,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>171</v>
@@ -7219,7 +7318,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>171</v>
@@ -7227,7 +7326,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>171</v>
@@ -7235,7 +7334,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>171</v>
@@ -7243,7 +7342,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>171</v>
@@ -7251,7 +7350,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>171</v>
@@ -7259,7 +7358,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>171</v>
@@ -7267,7 +7366,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>171</v>
@@ -7275,7 +7374,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>171</v>
@@ -7291,7 +7390,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>171</v>
@@ -7299,9 +7398,17 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7312,10 +7419,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:B75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7334,311 +7441,311 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>254</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>171</v>
@@ -7646,7 +7753,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>171</v>
@@ -7654,7 +7761,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>171</v>
@@ -7662,7 +7769,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>171</v>
@@ -7670,7 +7777,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>171</v>
@@ -7678,7 +7785,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>171</v>
@@ -7686,7 +7793,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>171</v>
@@ -7694,7 +7801,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>171</v>
@@ -7702,7 +7809,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>171</v>
@@ -7710,7 +7817,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>171</v>
@@ -7718,7 +7825,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>171</v>
@@ -7726,7 +7833,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>171</v>
@@ -7734,7 +7841,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>171</v>
@@ -7742,7 +7849,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>171</v>
@@ -7750,7 +7857,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>171</v>
@@ -7758,7 +7865,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>171</v>
@@ -7766,7 +7873,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>171</v>
@@ -7774,7 +7881,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>171</v>
@@ -7782,7 +7889,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>171</v>
@@ -7790,7 +7897,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>171</v>
@@ -7798,7 +7905,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>171</v>
@@ -7806,15 +7913,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>171</v>
@@ -7822,7 +7929,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>171</v>
@@ -7830,7 +7937,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>171</v>
@@ -7838,7 +7945,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>171</v>
@@ -7846,7 +7953,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>171</v>
@@ -7854,7 +7961,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>171</v>
@@ -7862,7 +7969,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>171</v>
@@ -7870,7 +7977,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>171</v>
@@ -7878,7 +7985,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>171</v>
@@ -7886,7 +7993,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>171</v>
@@ -7894,7 +8001,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>171</v>
@@ -7910,7 +8017,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>171</v>
@@ -7918,9 +8025,17 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7931,10 +8046,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="A1:B44"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7953,39 +8068,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>284</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>287</v>
@@ -7993,215 +8108,215 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>122</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>295</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>307</v>
@@ -8209,55 +8324,55 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>311</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>311</v>
@@ -8265,23 +8380,23 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>171</v>
@@ -8289,7 +8404,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>171</v>
@@ -8297,7 +8412,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>171</v>
@@ -8305,7 +8420,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>171</v>
@@ -8313,7 +8428,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>171</v>
@@ -8321,7 +8436,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>171</v>
@@ -8329,7 +8444,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>171</v>
@@ -8337,7 +8452,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>171</v>
@@ -8345,7 +8460,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>171</v>
@@ -8353,7 +8468,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>171</v>
@@ -8361,7 +8476,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>171</v>
@@ -8369,7 +8484,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>171</v>
@@ -8377,7 +8492,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>171</v>
@@ -8385,7 +8500,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>171</v>
@@ -8393,7 +8508,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>171</v>
@@ -8401,7 +8516,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>171</v>
@@ -8409,7 +8524,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>171</v>
@@ -8417,7 +8532,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>171</v>
@@ -8425,15 +8540,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>171</v>
@@ -8441,7 +8556,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>171</v>
@@ -8449,7 +8564,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>171</v>
@@ -8457,7 +8572,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>171</v>
@@ -8465,7 +8580,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>171</v>
@@ -8473,7 +8588,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>171</v>
@@ -8481,7 +8596,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>171</v>
@@ -8489,7 +8604,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>171</v>
@@ -8497,7 +8612,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>171</v>
@@ -8505,7 +8620,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>171</v>
@@ -8513,7 +8628,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>171</v>
@@ -8529,7 +8644,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>171</v>
@@ -8537,9 +8652,17 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>171</v>
       </c>
     </row>
